--- a/rhla_analysis/rhla1_6_uniform_result/k9.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k9.xlsx
@@ -457,142 +457,142 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.001528306304646821</v>
+        <v>0.0009958885172476179</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1232604662758499</v>
+        <v>0.1233503009328785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2817561807331628</v>
+        <v>0.2186014935505771</v>
       </c>
       <c r="D2" t="n">
-        <v>80.65167689296051</v>
+        <v>123.8595473254249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.001348866917200886</v>
+        <v>0.0008348681949484806</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1188472600461686</v>
+        <v>0.1193803370190241</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2693947144075021</v>
+        <v>0.2077393075356415</v>
       </c>
       <c r="D3" t="n">
-        <v>88.10895910531757</v>
+        <v>142.9930349980467</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.002442939559491575</v>
+        <v>0.002427030672060313</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1146280607406068</v>
+        <v>0.1141163986048015</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2621483375959079</v>
+        <v>0.2060420909708079</v>
       </c>
       <c r="D4" t="n">
-        <v>46.92218450319058</v>
+        <v>47.01893549121397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001545913160927182</v>
+        <v>0.001121519601430873</v>
       </c>
       <c r="B5" t="n">
-        <v>0.13064421090252</v>
+        <v>0.1306062285405959</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2779198635976129</v>
+        <v>0.2209775967413442</v>
       </c>
       <c r="D5" t="n">
-        <v>84.50941113934522</v>
+        <v>116.4546998322312</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.001762771106736978</v>
+        <v>0.001716232876207576</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1206013162073376</v>
+        <v>0.1210528824847278</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2600170502983802</v>
+        <v>0.1978954514596062</v>
       </c>
       <c r="D6" t="n">
-        <v>68.41575502708334</v>
+        <v>70.53406572202655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.0008748949435352579</v>
+        <v>0.0005634905363203716</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1075979187108802</v>
+        <v>0.1078863980404395</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2719522591645354</v>
+        <v>0.2073998642226748</v>
       </c>
       <c r="D7" t="n">
-        <v>122.9838159494906</v>
+        <v>191.4608872492241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.001087212350430686</v>
+        <v>0.0007896948445116662</v>
       </c>
       <c r="B8" t="n">
-        <v>0.106625104216257</v>
+        <v>0.1068240215922011</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2634271099744245</v>
+        <v>0.2141887304820095</v>
       </c>
       <c r="D8" t="n">
-        <v>98.07201341487587</v>
+        <v>135.2725325923322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0009708469454060025</v>
+        <v>0.000897652296114114</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1257442463037594</v>
+        <v>0.127464453187858</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2817561807331628</v>
+        <v>0.2230142566191446</v>
       </c>
       <c r="D9" t="n">
-        <v>129.5201544370868</v>
+        <v>141.9975793964371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001353766840796614</v>
+        <v>0.001341520921040084</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1143670191017705</v>
+        <v>0.1141952156598893</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2514919011082694</v>
+        <v>0.2073998642226748</v>
       </c>
       <c r="D10" t="n">
-        <v>84.48058827801702</v>
+        <v>85.12369346528978</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.001218732471980291</v>
+        <v>0.001215411456293167</v>
       </c>
       <c r="B11" t="n">
-        <v>0.1275380528433963</v>
+        <v>0.1284555221937375</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2489343563512361</v>
+        <v>0.1978954514596062</v>
       </c>
       <c r="D11" t="n">
-        <v>104.6481125067281</v>
+        <v>105.688918372967</v>
       </c>
     </row>
   </sheetData>

--- a/rhla_analysis/rhla1_6_uniform_result/k9.xlsx
+++ b/rhla_analysis/rhla1_6_uniform_result/k9.xlsx
@@ -457,7 +457,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0009958885172476179</v>
+        <v>0.0009958885172476168</v>
       </c>
       <c r="B2" t="n">
         <v>0.1233503009328785</v>
@@ -466,12 +466,12 @@
         <v>0.2186014935505771</v>
       </c>
       <c r="D2" t="n">
-        <v>123.8595473254249</v>
+        <v>123.859547325425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0008348681949484806</v>
+        <v>0.0008348681949484977</v>
       </c>
       <c r="B3" t="n">
         <v>0.1193803370190241</v>
@@ -480,12 +480,12 @@
         <v>0.2077393075356415</v>
       </c>
       <c r="D3" t="n">
-        <v>142.9930349980467</v>
+        <v>142.9930349980438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.002427030672060313</v>
+        <v>0.002427030672060314</v>
       </c>
       <c r="B4" t="n">
         <v>0.1141163986048015</v>
@@ -494,12 +494,12 @@
         <v>0.2060420909708079</v>
       </c>
       <c r="D4" t="n">
-        <v>47.01893549121397</v>
+        <v>47.01893549121396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.001121519601430873</v>
+        <v>0.001121519601430874</v>
       </c>
       <c r="B5" t="n">
         <v>0.1306062285405959</v>
@@ -508,7 +508,7 @@
         <v>0.2209775967413442</v>
       </c>
       <c r="D5" t="n">
-        <v>116.4546998322312</v>
+        <v>116.4546998322311</v>
       </c>
     </row>
     <row r="6">
@@ -522,7 +522,7 @@
         <v>0.1978954514596062</v>
       </c>
       <c r="D6" t="n">
-        <v>70.53406572202655</v>
+        <v>70.53406572202653</v>
       </c>
     </row>
     <row r="7">
@@ -541,7 +541,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0007896948445116662</v>
+        <v>0.0007896948445116679</v>
       </c>
       <c r="B8" t="n">
         <v>0.1068240215922011</v>
@@ -550,12 +550,12 @@
         <v>0.2141887304820095</v>
       </c>
       <c r="D8" t="n">
-        <v>135.2725325923322</v>
+        <v>135.2725325923319</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.000897652296114114</v>
+        <v>0.0008976522961141197</v>
       </c>
       <c r="B9" t="n">
         <v>0.127464453187858</v>
@@ -564,12 +564,12 @@
         <v>0.2230142566191446</v>
       </c>
       <c r="D9" t="n">
-        <v>141.9975793964371</v>
+        <v>141.9975793964362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.001341520921040084</v>
+        <v>0.001341520921040086</v>
       </c>
       <c r="B10" t="n">
         <v>0.1141952156598893</v>
@@ -578,12 +578,12 @@
         <v>0.2073998642226748</v>
       </c>
       <c r="D10" t="n">
-        <v>85.12369346528978</v>
+        <v>85.12369346528962</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.001215411456293167</v>
+        <v>0.001215411456293163</v>
       </c>
       <c r="B11" t="n">
         <v>0.1284555221937375</v>
@@ -592,7 +592,7 @@
         <v>0.1978954514596062</v>
       </c>
       <c r="D11" t="n">
-        <v>105.688918372967</v>
+        <v>105.6889183729674</v>
       </c>
     </row>
   </sheetData>
